--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:10:57+00:00</t>
+    <t>2022-10-10T20:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:11:06+00:00</t>
+    <t>2022-10-10T20:11:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:00:19+00:00</t>
+    <t>2022-10-21T23:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:01:56+00:00</t>
+    <t>2022-10-21T23:10:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:10:36+00:00</t>
+    <t>2022-10-21T23:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:24:13+00:00</t>
+    <t>2022-10-23T08:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:50:48+00:00</t>
+    <t>2022-10-23T08:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:58:51+00:00</t>
+    <t>2022-10-23T16:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T16:03:39+00:00</t>
+    <t>2022-10-23T18:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/FullMedicinalProduct</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/FullMedicinalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -234,20 +234,23 @@
     <t>Base</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>FullMedicinalProduct.identifier</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {http://unicom-project.eu/fhir/StructureDefinition/class}
+    <t xml:space="preserve">BackboneElement {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/class}
 </t>
   </si>
   <si>
     <t>Identifiers</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -267,9 +270,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FullMedicinalProduct.identifier.extension</t>
   </si>
   <si>
@@ -324,7 +324,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -336,7 +336,7 @@
     <t>FullMedicinalProduct.identifier.mpId</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/II}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/II}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>FullMedicinalProduct.domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/CD}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/CD}
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>FullMedicinalProduct.name.fullName</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/ST}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/ST}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>FullMedicinalProduct.marketingAuthorisation.date</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/DT}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/DT}
 </t>
   </si>
   <si>
@@ -889,7 +889,7 @@
     <t>FullMedicinalProduct.packagedProductDefinition.packSize.value</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/QT}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/QT}
 </t>
   </si>
   <si>
@@ -1026,7 +1026,7 @@
   </si>
   <si>
     <t>itemcontent-1:containedItem.containedPackage or containedItem.manufacturedItem SHALL be present, but not both {containedPackage.exists() implies manufacturedItem.exists().not()}
-ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}</t>
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.id</t>
@@ -1790,12 +1790,12 @@
         <v>69</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>71</v>
@@ -1818,13 +1818,13 @@
         <v>69</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1875,10 +1875,10 @@
         <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>71</v>
@@ -1887,7 +1887,7 @@
         <v>69</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>69</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1906,7 +1906,7 @@
         <v>70</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>69</v>
@@ -1918,13 +1918,13 @@
         <v>69</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1975,13 +1975,13 @@
         <v>69</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>69</v>
@@ -1990,7 +1990,7 @@
         <v>69</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2092,7 +2092,7 @@
         <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2209,10 +2209,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>69</v>
@@ -2284,10 +2284,10 @@
         <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>69</v>
@@ -2312,7 +2312,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>69</v>
@@ -2387,7 +2387,7 @@
         <v>70</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>69</v>
@@ -2509,10 +2509,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>69</v>
@@ -2584,10 +2584,10 @@
         <v>110</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>69</v>
@@ -2609,10 +2609,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>69</v>
@@ -2684,10 +2684,10 @@
         <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>69</v>
@@ -2709,10 +2709,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>69</v>
@@ -2784,10 +2784,10 @@
         <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>69</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>71</v>
@@ -2824,7 +2824,7 @@
         <v>69</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>118</v>
@@ -2884,7 +2884,7 @@
         <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>71</v>
@@ -2893,7 +2893,7 @@
         <v>69</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>69</v>
@@ -2912,7 +2912,7 @@
         <v>70</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>69</v>
@@ -2924,13 +2924,13 @@
         <v>69</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2981,13 +2981,13 @@
         <v>69</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>69</v>
@@ -2996,7 +2996,7 @@
         <v>69</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -3098,7 +3098,7 @@
         <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -3215,10 +3215,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>69</v>
@@ -3290,10 +3290,10 @@
         <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>69</v>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>71</v>
@@ -3430,7 +3430,7 @@
         <v>69</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>6</v>
@@ -3490,7 +3490,7 @@
         <v>126</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>71</v>
@@ -3499,7 +3499,7 @@
         <v>69</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>69</v>
@@ -3518,7 +3518,7 @@
         <v>70</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>69</v>
@@ -3530,13 +3530,13 @@
         <v>69</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3587,13 +3587,13 @@
         <v>69</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>69</v>
@@ -3602,7 +3602,7 @@
         <v>69</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -3704,7 +3704,7 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -3821,10 +3821,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>69</v>
@@ -3896,10 +3896,10 @@
         <v>130</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>69</v>
@@ -3936,7 +3936,7 @@
         <v>69</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>135</v>
@@ -4005,7 +4005,7 @@
         <v>69</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>69</v>
@@ -4024,7 +4024,7 @@
         <v>70</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>69</v>
@@ -4036,13 +4036,13 @@
         <v>69</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4093,13 +4093,13 @@
         <v>69</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>69</v>
@@ -4108,7 +4108,7 @@
         <v>69</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -4327,10 +4327,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>69</v>
@@ -4402,10 +4402,10 @@
         <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>69</v>
@@ -4430,7 +4430,7 @@
         <v>70</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>69</v>
@@ -4505,7 +4505,7 @@
         <v>70</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>69</v>
@@ -4530,7 +4530,7 @@
         <v>70</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>69</v>
@@ -4605,7 +4605,7 @@
         <v>70</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>69</v>
@@ -4642,7 +4642,7 @@
         <v>69</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>146</v>
@@ -4711,7 +4711,7 @@
         <v>69</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>69</v>
@@ -4730,7 +4730,7 @@
         <v>70</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>69</v>
@@ -4742,13 +4742,13 @@
         <v>69</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4799,13 +4799,13 @@
         <v>69</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>69</v>
@@ -4814,7 +4814,7 @@
         <v>69</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -4916,7 +4916,7 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -5033,10 +5033,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>69</v>
@@ -5108,10 +5108,10 @@
         <v>150</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>69</v>
@@ -5133,10 +5133,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>69</v>
@@ -5208,10 +5208,10 @@
         <v>152</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>69</v>
@@ -5248,7 +5248,7 @@
         <v>69</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>155</v>
@@ -5317,7 +5317,7 @@
         <v>69</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>69</v>
@@ -5336,7 +5336,7 @@
         <v>70</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>69</v>
@@ -5348,13 +5348,13 @@
         <v>69</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5405,13 +5405,13 @@
         <v>69</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>69</v>
@@ -5420,7 +5420,7 @@
         <v>69</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -5522,7 +5522,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>71</v>
@@ -5714,7 +5714,7 @@
         <v>159</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>71</v>
@@ -5739,10 +5739,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>69</v>
@@ -5814,10 +5814,10 @@
         <v>161</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>69</v>
@@ -5839,10 +5839,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>69</v>
@@ -5914,10 +5914,10 @@
         <v>163</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>69</v>
@@ -5942,7 +5942,7 @@
         <v>70</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>69</v>
@@ -6017,7 +6017,7 @@
         <v>70</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>69</v>
@@ -6039,10 +6039,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>69</v>
@@ -6054,7 +6054,7 @@
         <v>69</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>169</v>
@@ -6114,16 +6114,16 @@
         <v>168</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>69</v>
@@ -6142,7 +6142,7 @@
         <v>70</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>69</v>
@@ -6154,13 +6154,13 @@
         <v>69</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6211,13 +6211,13 @@
         <v>69</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>69</v>
@@ -6226,7 +6226,7 @@
         <v>69</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
@@ -6328,7 +6328,7 @@
         <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -6445,10 +6445,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>69</v>
@@ -6520,10 +6520,10 @@
         <v>173</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>69</v>
@@ -6548,7 +6548,7 @@
         <v>70</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>69</v>
@@ -6623,7 +6623,7 @@
         <v>70</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>69</v>
@@ -6645,10 +6645,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>69</v>
@@ -6720,10 +6720,10 @@
         <v>177</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>69</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>71</v>
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>180</v>
@@ -6820,7 +6820,7 @@
         <v>179</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>71</v>
@@ -6829,7 +6829,7 @@
         <v>69</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>69</v>
@@ -6848,7 +6848,7 @@
         <v>70</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>69</v>
@@ -6860,13 +6860,13 @@
         <v>69</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6917,13 +6917,13 @@
         <v>69</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>69</v>
@@ -6932,7 +6932,7 @@
         <v>69</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
@@ -7034,7 +7034,7 @@
         <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -7166,7 +7166,7 @@
         <v>69</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>185</v>
@@ -7235,7 +7235,7 @@
         <v>69</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>69</v>
@@ -7254,7 +7254,7 @@
         <v>70</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>69</v>
@@ -7266,13 +7266,13 @@
         <v>69</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7323,13 +7323,13 @@
         <v>69</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>69</v>
@@ -7338,7 +7338,7 @@
         <v>69</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
@@ -7440,7 +7440,7 @@
         <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
@@ -7757,10 +7757,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>69</v>
@@ -7832,10 +7832,10 @@
         <v>193</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>69</v>
@@ -7860,7 +7860,7 @@
         <v>70</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>69</v>
@@ -7935,7 +7935,7 @@
         <v>70</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>69</v>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>71</v>
@@ -8072,7 +8072,7 @@
         <v>69</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>200</v>
@@ -8132,7 +8132,7 @@
         <v>199</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>71</v>
@@ -8141,7 +8141,7 @@
         <v>69</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>69</v>
@@ -8160,7 +8160,7 @@
         <v>70</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>69</v>
@@ -8172,13 +8172,13 @@
         <v>69</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8229,13 +8229,13 @@
         <v>69</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>69</v>
@@ -8244,7 +8244,7 @@
         <v>69</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67">
@@ -8346,7 +8346,7 @@
         <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
@@ -8463,10 +8463,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>69</v>
@@ -8538,10 +8538,10 @@
         <v>204</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>69</v>
@@ -8563,10 +8563,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>69</v>
@@ -8638,10 +8638,10 @@
         <v>206</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>69</v>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>71</v>
@@ -8678,7 +8678,7 @@
         <v>69</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>209</v>
@@ -8738,7 +8738,7 @@
         <v>208</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>71</v>
@@ -8747,7 +8747,7 @@
         <v>69</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>69</v>
@@ -8766,7 +8766,7 @@
         <v>70</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>69</v>
@@ -8778,13 +8778,13 @@
         <v>69</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8835,13 +8835,13 @@
         <v>69</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>69</v>
@@ -8850,7 +8850,7 @@
         <v>69</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
@@ -8952,7 +8952,7 @@
         <v>94</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
@@ -9069,10 +9069,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>69</v>
@@ -9144,10 +9144,10 @@
         <v>213</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>69</v>
@@ -9169,10 +9169,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>69</v>
@@ -9184,7 +9184,7 @@
         <v>69</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>209</v>
@@ -9244,16 +9244,16 @@
         <v>215</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>69</v>
@@ -9272,7 +9272,7 @@
         <v>70</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>69</v>
@@ -9284,13 +9284,13 @@
         <v>69</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9341,13 +9341,13 @@
         <v>69</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>69</v>
@@ -9356,7 +9356,7 @@
         <v>69</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78">
@@ -9458,7 +9458,7 @@
         <v>94</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79">
@@ -9575,10 +9575,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>69</v>
@@ -9590,7 +9590,7 @@
         <v>69</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>220</v>
@@ -9650,16 +9650,16 @@
         <v>219</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>69</v>
@@ -9678,7 +9678,7 @@
         <v>70</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>69</v>
@@ -9690,13 +9690,13 @@
         <v>69</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9747,13 +9747,13 @@
         <v>69</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>69</v>
@@ -9762,7 +9762,7 @@
         <v>69</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
@@ -9864,7 +9864,7 @@
         <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
@@ -9981,10 +9981,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>69</v>
@@ -10056,10 +10056,10 @@
         <v>224</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>69</v>
@@ -10081,10 +10081,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>69</v>
@@ -10156,10 +10156,10 @@
         <v>226</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>69</v>
@@ -10181,10 +10181,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>69</v>
@@ -10256,10 +10256,10 @@
         <v>227</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>69</v>
@@ -10281,10 +10281,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>69</v>
@@ -10296,7 +10296,7 @@
         <v>69</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>230</v>
@@ -10356,16 +10356,16 @@
         <v>229</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>69</v>
@@ -10384,7 +10384,7 @@
         <v>70</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>69</v>
@@ -10396,13 +10396,13 @@
         <v>69</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10453,13 +10453,13 @@
         <v>69</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>69</v>
@@ -10468,7 +10468,7 @@
         <v>69</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
@@ -10570,7 +10570,7 @@
         <v>94</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90">
@@ -10687,10 +10687,10 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>69</v>
@@ -10762,10 +10762,10 @@
         <v>234</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>69</v>
@@ -10787,10 +10787,10 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>69</v>
@@ -10862,10 +10862,10 @@
         <v>235</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>69</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>71</v>
@@ -10902,7 +10902,7 @@
         <v>69</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>238</v>
@@ -10962,7 +10962,7 @@
         <v>237</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>71</v>
@@ -10971,7 +10971,7 @@
         <v>69</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>69</v>
@@ -10990,7 +10990,7 @@
         <v>70</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>69</v>
@@ -11002,13 +11002,13 @@
         <v>69</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11059,13 +11059,13 @@
         <v>69</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>69</v>
@@ -11074,7 +11074,7 @@
         <v>69</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95">
@@ -11176,7 +11176,7 @@
         <v>94</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96">
@@ -11293,10 +11293,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>69</v>
@@ -11368,10 +11368,10 @@
         <v>242</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>69</v>
@@ -11393,10 +11393,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>69</v>
@@ -11408,7 +11408,7 @@
         <v>69</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>209</v>
@@ -11468,16 +11468,16 @@
         <v>243</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>69</v>
@@ -11496,7 +11496,7 @@
         <v>70</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>69</v>
@@ -11508,13 +11508,13 @@
         <v>69</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -11565,13 +11565,13 @@
         <v>69</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>69</v>
@@ -11580,7 +11580,7 @@
         <v>69</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100">
@@ -11682,7 +11682,7 @@
         <v>94</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101">
@@ -11799,10 +11799,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>69</v>
@@ -11814,7 +11814,7 @@
         <v>69</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>220</v>
@@ -11874,16 +11874,16 @@
         <v>247</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>69</v>
@@ -11902,7 +11902,7 @@
         <v>70</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>69</v>
@@ -11914,13 +11914,13 @@
         <v>69</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -11971,13 +11971,13 @@
         <v>69</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>69</v>
@@ -11986,7 +11986,7 @@
         <v>69</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104">
@@ -12088,7 +12088,7 @@
         <v>94</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105">
@@ -12205,10 +12205,10 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>69</v>
@@ -12280,10 +12280,10 @@
         <v>251</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>69</v>
@@ -12305,10 +12305,10 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>69</v>
@@ -12380,10 +12380,10 @@
         <v>252</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>69</v>
@@ -12405,10 +12405,10 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>69</v>
@@ -12480,10 +12480,10 @@
         <v>253</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>69</v>
@@ -12505,10 +12505,10 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>69</v>
@@ -12520,7 +12520,7 @@
         <v>69</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>230</v>
@@ -12580,16 +12580,16 @@
         <v>254</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>69</v>
@@ -12608,7 +12608,7 @@
         <v>70</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>69</v>
@@ -12620,13 +12620,13 @@
         <v>69</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -12677,13 +12677,13 @@
         <v>69</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>69</v>
@@ -12692,7 +12692,7 @@
         <v>69</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111">
@@ -12794,7 +12794,7 @@
         <v>94</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
@@ -12911,10 +12911,10 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>69</v>
@@ -12986,10 +12986,10 @@
         <v>258</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>69</v>
@@ -13011,10 +13011,10 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>69</v>
@@ -13086,10 +13086,10 @@
         <v>259</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>69</v>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>71</v>
@@ -13126,7 +13126,7 @@
         <v>69</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>261</v>
@@ -13186,7 +13186,7 @@
         <v>260</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>71</v>
@@ -13195,7 +13195,7 @@
         <v>69</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>69</v>
@@ -13214,7 +13214,7 @@
         <v>70</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>69</v>
@@ -13226,13 +13226,13 @@
         <v>69</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -13283,13 +13283,13 @@
         <v>69</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>69</v>
@@ -13298,7 +13298,7 @@
         <v>69</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
@@ -13400,7 +13400,7 @@
         <v>94</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
@@ -13532,7 +13532,7 @@
         <v>69</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>266</v>
@@ -13601,7 +13601,7 @@
         <v>69</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>69</v>
@@ -13620,7 +13620,7 @@
         <v>70</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>69</v>
@@ -13632,13 +13632,13 @@
         <v>69</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -13689,13 +13689,13 @@
         <v>69</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>69</v>
@@ -13704,7 +13704,7 @@
         <v>69</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121">
@@ -13806,7 +13806,7 @@
         <v>94</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
@@ -13923,10 +13923,10 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>69</v>
@@ -13998,10 +13998,10 @@
         <v>270</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>69</v>
@@ -14126,7 +14126,7 @@
         <v>70</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>69</v>
@@ -14138,7 +14138,7 @@
         <v>69</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>275</v>
@@ -14201,13 +14201,13 @@
         <v>70</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>69</v>
@@ -14226,7 +14226,7 @@
         <v>70</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>69</v>
@@ -14238,13 +14238,13 @@
         <v>69</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -14295,13 +14295,13 @@
         <v>69</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>69</v>
@@ -14310,7 +14310,7 @@
         <v>69</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127">
@@ -14412,7 +14412,7 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
@@ -14532,7 +14532,7 @@
         <v>70</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>69</v>
@@ -14607,7 +14607,7 @@
         <v>70</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>69</v>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>71</v>
@@ -14644,7 +14644,7 @@
         <v>69</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>282</v>
@@ -14704,7 +14704,7 @@
         <v>281</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>71</v>
@@ -14713,7 +14713,7 @@
         <v>69</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>69</v>
@@ -14732,7 +14732,7 @@
         <v>70</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>69</v>
@@ -14744,13 +14744,13 @@
         <v>69</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -14801,13 +14801,13 @@
         <v>69</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>69</v>
@@ -14816,7 +14816,7 @@
         <v>69</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132">
@@ -14918,7 +14918,7 @@
         <v>94</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
@@ -15035,10 +15035,10 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>69</v>
@@ -15110,10 +15110,10 @@
         <v>286</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>69</v>
@@ -15135,10 +15135,10 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>69</v>
@@ -15210,10 +15210,10 @@
         <v>288</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>69</v>
@@ -15238,7 +15238,7 @@
         <v>70</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>69</v>
@@ -15313,7 +15313,7 @@
         <v>70</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>69</v>
@@ -15350,7 +15350,7 @@
         <v>69</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>292</v>
@@ -15419,7 +15419,7 @@
         <v>69</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>69</v>
@@ -15438,7 +15438,7 @@
         <v>70</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>69</v>
@@ -15450,13 +15450,13 @@
         <v>69</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -15507,13 +15507,13 @@
         <v>69</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>69</v>
@@ -15522,7 +15522,7 @@
         <v>69</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139">
@@ -15624,7 +15624,7 @@
         <v>94</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>71</v>
@@ -15816,7 +15816,7 @@
         <v>296</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>71</v>
@@ -15841,10 +15841,10 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>69</v>
@@ -15916,10 +15916,10 @@
         <v>297</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>69</v>
@@ -15941,10 +15941,10 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>69</v>
@@ -16016,10 +16016,10 @@
         <v>298</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>69</v>
@@ -16044,7 +16044,7 @@
         <v>70</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>69</v>
@@ -16119,7 +16119,7 @@
         <v>70</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>69</v>
@@ -16141,10 +16141,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>69</v>
@@ -16156,7 +16156,7 @@
         <v>69</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>169</v>
@@ -16216,16 +16216,16 @@
         <v>300</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>69</v>
@@ -16244,7 +16244,7 @@
         <v>70</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>69</v>
@@ -16256,13 +16256,13 @@
         <v>69</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -16313,13 +16313,13 @@
         <v>69</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>69</v>
@@ -16328,7 +16328,7 @@
         <v>69</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147">
@@ -16430,7 +16430,7 @@
         <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148">
@@ -16547,10 +16547,10 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>69</v>
@@ -16622,10 +16622,10 @@
         <v>304</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>69</v>
@@ -16650,7 +16650,7 @@
         <v>70</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>69</v>
@@ -16725,7 +16725,7 @@
         <v>70</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>69</v>
@@ -16747,10 +16747,10 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>69</v>
@@ -16822,10 +16822,10 @@
         <v>306</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>69</v>
@@ -16862,7 +16862,7 @@
         <v>69</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>308</v>
@@ -16931,7 +16931,7 @@
         <v>69</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>69</v>
@@ -16950,7 +16950,7 @@
         <v>70</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>69</v>
@@ -16962,13 +16962,13 @@
         <v>69</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -17019,13 +17019,13 @@
         <v>69</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>69</v>
@@ -17034,7 +17034,7 @@
         <v>69</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154">
@@ -17136,7 +17136,7 @@
         <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
@@ -17253,10 +17253,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>69</v>
@@ -17328,10 +17328,10 @@
         <v>312</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>69</v>
@@ -17353,10 +17353,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>69</v>
@@ -17428,10 +17428,10 @@
         <v>313</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>69</v>
@@ -17453,10 +17453,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>69</v>
@@ -17468,7 +17468,7 @@
         <v>69</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>315</v>
@@ -17528,16 +17528,16 @@
         <v>314</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>69</v>
@@ -17556,7 +17556,7 @@
         <v>70</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>69</v>
@@ -17568,13 +17568,13 @@
         <v>69</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -17625,13 +17625,13 @@
         <v>69</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>69</v>
@@ -17640,7 +17640,7 @@
         <v>69</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160">
@@ -17742,7 +17742,7 @@
         <v>94</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161">
@@ -17859,10 +17859,10 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>69</v>
@@ -17934,10 +17934,10 @@
         <v>319</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>69</v>
@@ -17959,10 +17959,10 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>69</v>
@@ -18034,10 +18034,10 @@
         <v>321</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>69</v>
@@ -18174,7 +18174,7 @@
         <v>69</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>326</v>
@@ -18243,7 +18243,7 @@
         <v>69</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>69</v>
@@ -18262,7 +18262,7 @@
         <v>70</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>69</v>
@@ -18274,13 +18274,13 @@
         <v>69</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -18331,13 +18331,13 @@
         <v>69</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>69</v>
@@ -18346,7 +18346,7 @@
         <v>69</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167">
@@ -18448,7 +18448,7 @@
         <v>94</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168">
@@ -18580,7 +18580,7 @@
         <v>69</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K169" t="s" s="2">
         <v>331</v>
@@ -18668,7 +18668,7 @@
         <v>70</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>69</v>
@@ -18680,13 +18680,13 @@
         <v>69</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -18737,13 +18737,13 @@
         <v>69</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>69</v>
@@ -18752,7 +18752,7 @@
         <v>69</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171">
@@ -18854,7 +18854,7 @@
         <v>94</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172">
@@ -18971,10 +18971,10 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>69</v>
@@ -18986,7 +18986,7 @@
         <v>69</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>337</v>
@@ -19046,16 +19046,16 @@
         <v>336</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>69</v>
@@ -19074,7 +19074,7 @@
         <v>70</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>69</v>
@@ -19086,13 +19086,13 @@
         <v>69</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -19143,13 +19143,13 @@
         <v>69</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>69</v>
@@ -19158,7 +19158,7 @@
         <v>69</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175">
@@ -19260,7 +19260,7 @@
         <v>94</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176">
@@ -19377,10 +19377,10 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>69</v>
@@ -19452,10 +19452,10 @@
         <v>341</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>69</v>
@@ -19480,7 +19480,7 @@
         <v>70</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>69</v>
@@ -19555,7 +19555,7 @@
         <v>70</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>69</v>
@@ -19677,7 +19677,7 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F180" t="s" s="2">
         <v>71</v>
@@ -19692,7 +19692,7 @@
         <v>69</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K180" t="s" s="2">
         <v>346</v>
@@ -19752,7 +19752,7 @@
         <v>345</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>71</v>
@@ -19761,7 +19761,7 @@
         <v>69</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>69</v>
@@ -19780,7 +19780,7 @@
         <v>70</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>69</v>
@@ -19792,13 +19792,13 @@
         <v>69</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -19849,13 +19849,13 @@
         <v>69</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>69</v>
@@ -19864,7 +19864,7 @@
         <v>69</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182">
@@ -19966,7 +19966,7 @@
         <v>94</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183">
@@ -20083,10 +20083,10 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>69</v>
@@ -20158,10 +20158,10 @@
         <v>350</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>69</v>
@@ -20183,10 +20183,10 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>69</v>
@@ -20258,10 +20258,10 @@
         <v>352</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>69</v>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>71</v>
@@ -20298,7 +20298,7 @@
         <v>69</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K186" t="s" s="2">
         <v>200</v>
@@ -20358,7 +20358,7 @@
         <v>353</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>71</v>
@@ -20367,7 +20367,7 @@
         <v>69</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>69</v>
@@ -20386,7 +20386,7 @@
         <v>70</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>69</v>
@@ -20398,13 +20398,13 @@
         <v>69</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -20455,13 +20455,13 @@
         <v>69</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>69</v>
@@ -20470,7 +20470,7 @@
         <v>69</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188">
@@ -20572,7 +20572,7 @@
         <v>94</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="189">
@@ -20689,10 +20689,10 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>69</v>
@@ -20764,10 +20764,10 @@
         <v>357</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>69</v>
@@ -20789,10 +20789,10 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>69</v>
@@ -20864,10 +20864,10 @@
         <v>358</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>69</v>
@@ -20889,7 +20889,7 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F192" t="s" s="2">
         <v>71</v>
@@ -20904,7 +20904,7 @@
         <v>69</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>209</v>
@@ -20964,7 +20964,7 @@
         <v>359</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>71</v>
@@ -20973,7 +20973,7 @@
         <v>69</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>69</v>
@@ -20992,7 +20992,7 @@
         <v>70</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>69</v>
@@ -21004,13 +21004,13 @@
         <v>69</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -21061,13 +21061,13 @@
         <v>69</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>69</v>
@@ -21076,7 +21076,7 @@
         <v>69</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194">
@@ -21178,7 +21178,7 @@
         <v>94</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195">
@@ -21295,10 +21295,10 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F196" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>69</v>
@@ -21370,10 +21370,10 @@
         <v>363</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>69</v>
@@ -21395,10 +21395,10 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F197" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G197" t="s" s="2">
         <v>69</v>
@@ -21410,7 +21410,7 @@
         <v>69</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K197" t="s" s="2">
         <v>209</v>
@@ -21470,16 +21470,16 @@
         <v>364</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>69</v>
@@ -21498,7 +21498,7 @@
         <v>70</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>69</v>
@@ -21510,13 +21510,13 @@
         <v>69</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -21567,13 +21567,13 @@
         <v>69</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>69</v>
@@ -21582,7 +21582,7 @@
         <v>69</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199">
@@ -21684,7 +21684,7 @@
         <v>94</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200">
@@ -21801,10 +21801,10 @@
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>69</v>
@@ -21816,7 +21816,7 @@
         <v>69</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K201" t="s" s="2">
         <v>220</v>
@@ -21876,16 +21876,16 @@
         <v>368</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>69</v>
@@ -21904,7 +21904,7 @@
         <v>70</v>
       </c>
       <c r="F202" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G202" t="s" s="2">
         <v>69</v>
@@ -21916,13 +21916,13 @@
         <v>69</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -21973,13 +21973,13 @@
         <v>69</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>69</v>
@@ -21988,7 +21988,7 @@
         <v>69</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203">
@@ -22090,7 +22090,7 @@
         <v>94</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204">
@@ -22207,10 +22207,10 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F205" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G205" t="s" s="2">
         <v>69</v>
@@ -22282,10 +22282,10 @@
         <v>372</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>69</v>
@@ -22307,10 +22307,10 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>69</v>
@@ -22382,10 +22382,10 @@
         <v>373</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>69</v>
@@ -22407,10 +22407,10 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>69</v>
@@ -22482,10 +22482,10 @@
         <v>374</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>69</v>
@@ -22507,10 +22507,10 @@
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F208" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>69</v>
@@ -22522,7 +22522,7 @@
         <v>69</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K208" t="s" s="2">
         <v>230</v>
@@ -22582,16 +22582,16 @@
         <v>376</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>69</v>
@@ -22610,7 +22610,7 @@
         <v>70</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>69</v>
@@ -22622,13 +22622,13 @@
         <v>69</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -22679,13 +22679,13 @@
         <v>69</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>69</v>
@@ -22694,7 +22694,7 @@
         <v>69</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210">
@@ -22796,7 +22796,7 @@
         <v>94</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211">
@@ -22913,10 +22913,10 @@
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>69</v>
@@ -22988,10 +22988,10 @@
         <v>380</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>69</v>
@@ -23013,10 +23013,10 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F213" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>69</v>
@@ -23088,10 +23088,10 @@
         <v>381</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>69</v>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F214" t="s" s="2">
         <v>71</v>
@@ -23128,7 +23128,7 @@
         <v>69</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K214" t="s" s="2">
         <v>238</v>
@@ -23188,7 +23188,7 @@
         <v>382</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>71</v>
@@ -23197,7 +23197,7 @@
         <v>69</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>69</v>
@@ -23216,7 +23216,7 @@
         <v>70</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>69</v>
@@ -23228,13 +23228,13 @@
         <v>69</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -23285,13 +23285,13 @@
         <v>69</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>69</v>
@@ -23300,7 +23300,7 @@
         <v>69</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216">
@@ -23402,7 +23402,7 @@
         <v>94</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217">
@@ -23519,10 +23519,10 @@
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F218" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G218" t="s" s="2">
         <v>69</v>
@@ -23594,10 +23594,10 @@
         <v>386</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>69</v>
@@ -23619,10 +23619,10 @@
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F219" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G219" t="s" s="2">
         <v>69</v>
@@ -23634,7 +23634,7 @@
         <v>69</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K219" t="s" s="2">
         <v>209</v>
@@ -23694,16 +23694,16 @@
         <v>387</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>69</v>
@@ -23722,7 +23722,7 @@
         <v>70</v>
       </c>
       <c r="F220" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>69</v>
@@ -23734,13 +23734,13 @@
         <v>69</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
@@ -23791,13 +23791,13 @@
         <v>69</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>69</v>
@@ -23806,7 +23806,7 @@
         <v>69</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221">
@@ -23908,7 +23908,7 @@
         <v>94</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222">
@@ -24025,10 +24025,10 @@
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F223" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>69</v>
@@ -24040,7 +24040,7 @@
         <v>69</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>220</v>
@@ -24100,16 +24100,16 @@
         <v>391</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>69</v>
@@ -24128,7 +24128,7 @@
         <v>70</v>
       </c>
       <c r="F224" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>69</v>
@@ -24140,13 +24140,13 @@
         <v>69</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
@@ -24197,13 +24197,13 @@
         <v>69</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>69</v>
@@ -24212,7 +24212,7 @@
         <v>69</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225">
@@ -24314,7 +24314,7 @@
         <v>94</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226">
@@ -24431,10 +24431,10 @@
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F227" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G227" t="s" s="2">
         <v>69</v>
@@ -24506,10 +24506,10 @@
         <v>395</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>69</v>
@@ -24531,10 +24531,10 @@
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F228" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>69</v>
@@ -24606,10 +24606,10 @@
         <v>396</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>69</v>
@@ -24631,10 +24631,10 @@
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F229" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>69</v>
@@ -24706,10 +24706,10 @@
         <v>397</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>69</v>
@@ -24731,10 +24731,10 @@
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>69</v>
@@ -24746,7 +24746,7 @@
         <v>69</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K230" t="s" s="2">
         <v>230</v>
@@ -24806,16 +24806,16 @@
         <v>398</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>69</v>
@@ -24834,7 +24834,7 @@
         <v>70</v>
       </c>
       <c r="F231" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>69</v>
@@ -24846,13 +24846,13 @@
         <v>69</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -24903,13 +24903,13 @@
         <v>69</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>69</v>
@@ -24918,7 +24918,7 @@
         <v>69</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232">
@@ -25020,7 +25020,7 @@
         <v>94</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233">
@@ -25137,10 +25137,10 @@
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F234" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>69</v>
@@ -25212,10 +25212,10 @@
         <v>402</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>69</v>
@@ -25237,10 +25237,10 @@
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F235" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G235" t="s" s="2">
         <v>69</v>
@@ -25312,10 +25312,10 @@
         <v>403</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>69</v>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/FullMedicinalProduct</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/FullMedicinalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T13:37:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,7 +240,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {http://unicom-project.eu/fhir/StructureDefinition/class}
+    <t xml:space="preserve">BackboneElement {http://hl7-eu.github.io/unicom-ig/StructureDefinition/class}
 </t>
   </si>
   <si>
@@ -336,7 +336,7 @@
     <t>FullMedicinalProduct.identifier.mpId</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/II}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/II}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>FullMedicinalProduct.domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/CD}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/CD}
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>FullMedicinalProduct.name.fullName</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/ST}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>FullMedicinalProduct.marketingAuthorisation.date</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/DT}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/DT}
 </t>
   </si>
   <si>
@@ -889,7 +889,7 @@
     <t>FullMedicinalProduct.packagedProductDefinition.packSize.value</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/QT}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/QT}
 </t>
   </si>
   <si>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T13:37:56+00:00</t>
+    <t>2022-11-20T14:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/FullMedicinalProduct</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/FullMedicinalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T14:32:03+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,7 +240,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {http://hl7-eu.github.io/unicom-ig/StructureDefinition/class}
+    <t xml:space="preserve">BackboneElement {http://unicom-project.eu/fhir/StructureDefinition/class}
 </t>
   </si>
   <si>
@@ -336,7 +336,7 @@
     <t>FullMedicinalProduct.identifier.mpId</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/II}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/II}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>FullMedicinalProduct.domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/CD}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/CD}
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>FullMedicinalProduct.name.fullName</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/ST}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>FullMedicinalProduct.marketingAuthorisation.date</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/DT}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/DT}
 </t>
   </si>
   <si>
@@ -889,7 +889,7 @@
     <t>FullMedicinalProduct.packagedProductDefinition.packSize.value</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/QT}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/QT}
 </t>
   </si>
   <si>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/FullMedicinalProduct</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/FullMedicinalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T13:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,7 +240,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {http://unicom-project.eu/fhir/StructureDefinition/class}
+    <t xml:space="preserve">BackboneElement {http://hl7-eu.github.io/unicom-ig/StructureDefinition/class}
 </t>
   </si>
   <si>
@@ -336,7 +336,7 @@
     <t>FullMedicinalProduct.identifier.mpId</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/II}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/II}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>FullMedicinalProduct.domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/CD}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/CD}
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>FullMedicinalProduct.name.fullName</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/ST}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>FullMedicinalProduct.marketingAuthorisation.date</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/DT}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/DT}
 </t>
   </si>
   <si>
@@ -889,7 +889,7 @@
     <t>FullMedicinalProduct.packagedProductDefinition.packSize.value</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/QT}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/QT}
 </t>
   </si>
   <si>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:49:32+00:00</t>
+    <t>2022-11-22T14:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/FullMedicinalProduct</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/FullMedicinalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:02:44+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,7 +240,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {http://hl7-eu.github.io/unicom-ig/StructureDefinition/class}
+    <t xml:space="preserve">BackboneElement {http://unicom-project.eu/fhir/StructureDefinition/class}
 </t>
   </si>
   <si>
@@ -336,7 +336,7 @@
     <t>FullMedicinalProduct.identifier.mpId</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/II}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/II}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>FullMedicinalProduct.domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/CD}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/CD}
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>FullMedicinalProduct.name.fullName</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/ST}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>FullMedicinalProduct.marketingAuthorisation.date</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/DT}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/DT}
 </t>
   </si>
   <si>
@@ -889,7 +889,7 @@
     <t>FullMedicinalProduct.packagedProductDefinition.packSize.value</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/QT}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/QT}
 </t>
   </si>
   <si>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/FullMedicinalProduct</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/FullMedicinalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T22:13:14+00:00</t>
+    <t>2022-11-25T11:25:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,7 +240,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {http://unicom-project.eu/fhir/StructureDefinition/class}
+    <t xml:space="preserve">BackboneElement {http://hl7-eu.github.io/unicom-ig/StructureDefinition/class}
 </t>
   </si>
   <si>
@@ -336,7 +336,7 @@
     <t>FullMedicinalProduct.identifier.mpId</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/II}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/II}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>FullMedicinalProduct.domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/CD}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/CD}
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>FullMedicinalProduct.name.fullName</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/ST}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>FullMedicinalProduct.marketingAuthorisation.date</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/DT}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/DT}
 </t>
   </si>
   <si>
@@ -889,7 +889,7 @@
     <t>FullMedicinalProduct.packagedProductDefinition.packSize.value</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/QT}
+    <t xml:space="preserve">Element {http://hl7-eu.github.io/unicom-ig/StructureDefinition/QT}
 </t>
   </si>
   <si>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:25:38+00:00</t>
+    <t>2022-11-25T11:48:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T22:48:13+00:00</t>
+    <t>2022-11-25T22:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
